--- a/public/Data Tabungan.xlsx
+++ b/public/Data Tabungan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>No Tabungan</t>
   </si>
@@ -26,16 +26,208 @@
     <t>Saldo</t>
   </si>
   <si>
-    <t>Penarikan</t>
-  </si>
-  <si>
-    <t>fikri1</t>
-  </si>
-  <si>
-    <t>aslam</t>
-  </si>
-  <si>
-    <t>fajar</t>
+    <t>Kredit</t>
+  </si>
+  <si>
+    <t>Febrian</t>
+  </si>
+  <si>
+    <t>Cecep</t>
+  </si>
+  <si>
+    <t>Anneke Despia</t>
+  </si>
+  <si>
+    <t>Dewi A. Iryani</t>
+  </si>
+  <si>
+    <t>Dewi Kantor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofik Taufik Purwadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heru </t>
+  </si>
+  <si>
+    <t>Wiwit Kasmawati</t>
+  </si>
+  <si>
+    <t>SMKN 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hendra Satria Nugroho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwi Lestari </t>
+  </si>
+  <si>
+    <t>Ranja Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lusya Monica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharani Kencana </t>
+  </si>
+  <si>
+    <t>Rahma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rokhimah </t>
+  </si>
+  <si>
+    <t>Ida Ropaida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari Setiawan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untung Wijaya </t>
+  </si>
+  <si>
+    <t>Putri Mekar A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nining Wahyuni </t>
+  </si>
+  <si>
+    <t>Dhiaulhaq Luqyana N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eria Zundi Rahmadani </t>
+  </si>
+  <si>
+    <t>Elok Budi Utami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wardatul Aini Putri </t>
+  </si>
+  <si>
+    <t>Rifki Ananda Saputro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrian Setiawan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustom Hidayatullah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadi Prayitno </t>
+  </si>
+  <si>
+    <t>Ahmad Fahrezy</t>
+  </si>
+  <si>
+    <t>Zillia Chairani</t>
+  </si>
+  <si>
+    <t>Fathan Naufal A</t>
+  </si>
+  <si>
+    <t>Lenny Aditia P</t>
+  </si>
+  <si>
+    <t>Zulfa Afifah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fifi Cahyani Pramesti </t>
+  </si>
+  <si>
+    <t>I Gusti Komang Satria G.W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subkhan Erlangga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erlinda Puspitasari </t>
+  </si>
+  <si>
+    <t>Putri Afrianis</t>
+  </si>
+  <si>
+    <t>Rivaldi Silva Julian</t>
+  </si>
+  <si>
+    <t>Fandi Afrianto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Faris Azzahri </t>
+  </si>
+  <si>
+    <t>Zandra Sadira P</t>
+  </si>
+  <si>
+    <t>Anang Ma'ruf</t>
+  </si>
+  <si>
+    <t>Elysia Azhara Hendra</t>
+  </si>
+  <si>
+    <t>Dina Endang Ristanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qanita Wulandari </t>
+  </si>
+  <si>
+    <t>Ananda Emelia Yusuf</t>
+  </si>
+  <si>
+    <t>Zikrun Ardiantara</t>
+  </si>
+  <si>
+    <t>Ridho Solikhin</t>
+  </si>
+  <si>
+    <t>Annisa Dzuladyas Sofhia</t>
+  </si>
+  <si>
+    <t>Fakhruddin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melia Tri Anggraini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berta Putri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untari Fajar Lestari </t>
+  </si>
+  <si>
+    <t>Anisa Pramita</t>
+  </si>
+  <si>
+    <t>Seilfi Rahmadani</t>
+  </si>
+  <si>
+    <t>Adelia Febrianti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adi Saputra </t>
+  </si>
+  <si>
+    <t>Salma Shakira</t>
+  </si>
+  <si>
+    <t>Chika Adha Zahira</t>
+  </si>
+  <si>
+    <t>Bathi Cahyadi</t>
+  </si>
+  <si>
+    <t>Maula Hudzahifah</t>
+  </si>
+  <si>
+    <t>Andri Kurnia Safitri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yunita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorif Adnan Nafis </t>
   </si>
 </sst>
 </file>
@@ -375,7 +567,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,27 +591,27 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>123123</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>59500</v>
+        <v>14000</v>
       </c>
       <c r="D2">
-        <v>180500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>8123123</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2920</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -427,16 +619,912 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>50000</v>
+        <v>49548.5</v>
       </c>
       <c r="D4">
-        <v>196000</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>111584</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8004</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>26263.5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>26098</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>19696</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>800459</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>9513</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>19932</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>4040</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>15374</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>820</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>16100</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>40500</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/Data Tabungan.xlsx
+++ b/public/Data Tabungan.xlsx
@@ -29,9 +29,6 @@
     <t>Kredit</t>
   </si>
   <si>
-    <t>Febrian</t>
-  </si>
-  <si>
     <t>Cecep</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t xml:space="preserve">Thorif Adnan Nafis </t>
+  </si>
+  <si>
+    <t>fikri</t>
   </si>
 </sst>
 </file>
@@ -591,27 +591,27 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>14000</v>
+        <v>9070</v>
       </c>
       <c r="D2">
-        <v>10000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2920</v>
+        <v>49548.5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>49548.5</v>
+        <v>111584</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>111584</v>
+        <v>8004</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>8004</v>
+        <v>26263.5</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>26263.5</v>
+        <v>26098</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>26098</v>
+        <v>19696</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>19696</v>
+        <v>800459</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>800459</v>
+        <v>9513</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>9513</v>
+        <v>19932</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>19932</v>
+        <v>4040</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>4040</v>
+        <v>15374</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>15374</v>
+        <v>820</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>820</v>
+        <v>16100</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16">
-        <v>16100</v>
+        <v>40500</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>40500</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>60</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>61</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>64</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>67</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>68</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>69</v>
@@ -1515,16 +1515,16 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>5240</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
   </sheetData>
